--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelewis/Desktop/DameTime/SAUCE/FitnessFeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC478AF-0D79-BB45-A89B-45902B170F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA219A79-BFE7-B244-8B0F-DF84FD461345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21160" xr2:uid="{EA1A965C-D3CC-A24A-BD8B-8AC8FF7C635D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21160" activeTab="1" xr2:uid="{EA1A965C-D3CC-A24A-BD8B-8AC8FF7C635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaderboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Boy</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE247281-615A-8740-A72F-12D9365B9461}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="B2">
         <f>SUM(Underlying!B2:BG2)</f>
-        <v>0</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -455,7 +455,8 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>SUM(Underlying!B3:BG3)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -464,7 +465,7 @@
       </c>
       <c r="B4">
         <f>SUM(Underlying!B4:BG4)</f>
-        <v>0</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -473,7 +474,7 @@
       </c>
       <c r="B5">
         <f>SUM(Underlying!B5:BG5)</f>
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,7 +483,7 @@
       </c>
       <c r="B6">
         <f>SUM(Underlying!B6:BG6)</f>
-        <v>0</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +492,7 @@
       </c>
       <c r="B7">
         <f>SUM(Underlying!B7:BG7)</f>
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -500,7 +501,7 @@
       </c>
       <c r="B8">
         <f>SUM(Underlying!B8:BG8)</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -509,7 +510,7 @@
       </c>
       <c r="B9">
         <f>SUM(Underlying!B9:BG9)</f>
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -518,7 +519,7 @@
       </c>
       <c r="B10">
         <f>SUM(Underlying!B10:BG10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,15 +528,6 @@
       </c>
       <c r="B11">
         <f>SUM(Underlying!B11:BG11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <f>SUM(Underlying!B12:BG12)</f>
         <v>0</v>
       </c>
     </row>
@@ -546,15 +538,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F68876-FCA1-454A-AB7C-1C3DB3C4AF47}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,79 +554,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.8</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3.9</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4">
+        <v>5.8</v>
+      </c>
+      <c r="E4">
+        <v>5.8</v>
+      </c>
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.7</v>
+      </c>
+      <c r="D6">
+        <v>1.7</v>
+      </c>
+      <c r="E6">
+        <v>3.4</v>
+      </c>
+      <c r="F6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5.7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+      <c r="D10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -642,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
